--- a/BAB Task/data.xlsx
+++ b/BAB Task/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,6 +413,9 @@
         <v>city</v>
       </c>
       <c r="D1" t="str">
+        <v>region</v>
+      </c>
+      <c r="E1" t="str">
         <v>email</v>
       </c>
     </row>
@@ -424,7 +427,13 @@
         <v/>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>Not Available</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="3">
@@ -435,73 +444,115 @@
         <v>160916095</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>RIYADH</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Gulf Pioneers for Construction Company</v>
+        <v>Gulf Pioneers Trading Company</v>
       </c>
       <c r="B4" t="str">
-        <v>10000434</v>
+        <v>280728074</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>RIYADH</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Arabian Towers Projects Contracting Company</v>
+        <v>Gulf Pioneers for Construction Company</v>
       </c>
       <c r="B5" t="str">
-        <v>220622064</v>
+        <v>10000434</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>RIYADH</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>On Al-Arabia Contracting Est.</v>
+        <v>Alenjazat Contracting Company</v>
       </c>
       <c r="B6" t="str">
-        <v>178417841</v>
+        <v>10000937</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>RIYADH</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Gulf Pioneers Trading Company</v>
+        <v>On Al-Arabia Contracting Est.</v>
       </c>
       <c r="B7" t="str">
-        <v>280728074</v>
+        <v>178417841</v>
       </c>
       <c r="C7" t="str">
-        <v/>
+        <v>RIYADH</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Alenjazat Contracting Company</v>
+        <v>Arabian Towers Projects Contracting Company</v>
       </c>
       <c r="B8" t="str">
-        <v>10000937</v>
+        <v>220622064</v>
       </c>
       <c r="C8" t="str">
-        <v/>
+        <v>DAMMAM</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Ratel Al Sharq Contracting Company</v>
+        <v>TAKWEEN AND CONSTRUCTION</v>
       </c>
       <c r="B9" t="str">
-        <v>101010104</v>
+        <v>438043804</v>
       </c>
       <c r="C9" t="str">
-        <v/>
+        <v>RIYADH</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="10">
@@ -512,29 +563,47 @@
         <v>144214428</v>
       </c>
       <c r="C10" t="str">
-        <v/>
+        <v>AL KHOBAR</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>TAKWEEN AND CONSTRUCTION</v>
+        <v>Ratel Al Sharq Contracting Company</v>
       </c>
       <c r="B11" t="str">
-        <v>438043804</v>
+        <v>101010104</v>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>RIYADH</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Rasm Al Benaa Trading and Contracting Co</v>
+        <v>Dome Park Contracting Company</v>
       </c>
       <c r="B12" t="str">
-        <v>109910994</v>
+        <v>251725170</v>
       </c>
       <c r="C12" t="str">
-        <v/>
+        <v>AL MUWAYH AL JADID</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="13">
@@ -545,84 +614,132 @@
         <v>138113818</v>
       </c>
       <c r="C13" t="str">
-        <v/>
+        <v>RIYADH</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Al-Wessam Contracting Company</v>
+        <v>Rasm Al Benaa Trading and Contracting Co</v>
       </c>
       <c r="B14" t="str">
-        <v>106110611</v>
+        <v>109910994</v>
       </c>
       <c r="C14" t="str">
-        <v/>
+        <v>DAMMAM</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Dome Park Contracting Company</v>
+        <v>Al-Wessam Contracting Company</v>
       </c>
       <c r="B15" t="str">
-        <v>251725170</v>
+        <v>106110611</v>
       </c>
       <c r="C15" t="str">
-        <v/>
+        <v>BILJURASHI</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Bahah</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Al-Manarat Al-Dhahabiya Contracting Company</v>
+        <v>Mastery and Quality Architectural Contracting Est</v>
       </c>
       <c r="B16" t="str">
-        <v>414741474</v>
+        <v>131313131</v>
       </c>
       <c r="C16" t="str">
-        <v/>
+        <v>JEDDAH</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Manarat AlOmran AlHadeeth Contracting Est.</v>
+        <v>Mona Nazzal Dehaidah Al Harbi General Contracting Est</v>
       </c>
       <c r="B17" t="str">
-        <v>100008649</v>
+        <v>232123211</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>BURAYDAH</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Qassim</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Tala Trading Company</v>
+        <v>Future Houses General Architectural Contracting Est</v>
       </c>
       <c r="B18" t="str">
-        <v>100008050</v>
+        <v>117511752</v>
       </c>
       <c r="C18" t="str">
-        <v/>
+        <v>RIYADH</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Mona Nazzal Dehaidah Al Harbi General Contracting Est</v>
+        <v>Al-Manarat Al-Dhahabiya Contracting Company</v>
       </c>
       <c r="B19" t="str">
-        <v>232123211</v>
+        <v>414741474</v>
       </c>
       <c r="C19" t="str">
-        <v/>
+        <v>MUHAYIL</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Asir</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Future Houses General Architectural Contracting Est</v>
+        <v>Modern Building Solutions Contracting Company</v>
       </c>
       <c r="B20" t="str">
-        <v>117511752</v>
+        <v>121612167</v>
       </c>
       <c r="C20" t="str">
-        <v/>
+        <v>RIYADH</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="21">
@@ -633,23 +750,35 @@
         <v>305530557</v>
       </c>
       <c r="C21" t="str">
-        <v/>
+        <v>HAFAR AL BATIN</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Not Available</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Unique Execution Corporation for General Contracting</v>
+        <v>Wasl Al Khair Contracting Est</v>
       </c>
       <c r="B22" t="str">
-        <v>181518150</v>
+        <v>144614468</v>
       </c>
       <c r="C22" t="str">
-        <v/>
+        <v>AHAD AL MUSARIHAH</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Jizan</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Not Available</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/BAB Task/data.xlsx
+++ b/BAB Task/data.xlsx
@@ -397,37 +397,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.00390625" customWidth="1"/>
+    <col min="4" max="4" width="25.00390625" customWidth="1"/>
+    <col min="5" max="5" width="25.00390625" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>page</v>
+      </c>
+      <c r="B1" t="str">
         <v>companyName</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>number</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>city</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>region</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>email</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v/>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="str">
         <v/>
       </c>
       <c r="C2" t="str">
-        <v>Not Available</v>
+        <v/>
       </c>
       <c r="D2" t="str">
         <v>Not Available</v>
@@ -435,350 +446,4193 @@
       <c r="E2" t="str">
         <v>Not Available</v>
       </c>
+      <c r="F2" t="str">
+        <v>Not Available</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
         <v>Awared General Contracting Company</v>
       </c>
-      <c r="B3" t="str">
+      <c r="C3" t="str">
         <v>160916095</v>
       </c>
-      <c r="C3" t="str">
-        <v>RIYADH</v>
-      </c>
       <c r="D3" t="str">
-        <v>Riyadh</v>
+        <v>RIYADH</v>
       </c>
       <c r="E3" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F3" t="str">
         <v>Not Available</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="str">
         <v>Gulf Pioneers Trading Company</v>
       </c>
-      <c r="B4" t="str">
+      <c r="C4" t="str">
         <v>280728074</v>
       </c>
-      <c r="C4" t="str">
-        <v>RIYADH</v>
-      </c>
       <c r="D4" t="str">
-        <v>Riyadh</v>
+        <v>RIYADH</v>
       </c>
       <c r="E4" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F4" t="str">
         <v>Not Available</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="str">
         <v>Gulf Pioneers for Construction Company</v>
       </c>
-      <c r="B5" t="str">
+      <c r="C5" t="str">
         <v>10000434</v>
       </c>
-      <c r="C5" t="str">
-        <v>RIYADH</v>
-      </c>
       <c r="D5" t="str">
-        <v>Riyadh</v>
+        <v>RIYADH</v>
       </c>
       <c r="E5" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F5" t="str">
         <v>Not Available</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="str">
+        <v>On Al-Arabia Contracting Est.</v>
+      </c>
+      <c r="C6" t="str">
+        <v>178417841</v>
+      </c>
+      <c r="D6" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="str">
         <v>Alenjazat Contracting Company</v>
       </c>
-      <c r="B6" t="str">
+      <c r="C7" t="str">
         <v>10000937</v>
       </c>
-      <c r="C6" t="str">
-        <v>RIYADH</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Riyadh</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Not Available</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>On Al-Arabia Contracting Est.</v>
-      </c>
-      <c r="B7" t="str">
-        <v>178417841</v>
-      </c>
-      <c r="C7" t="str">
-        <v>RIYADH</v>
-      </c>
       <c r="D7" t="str">
-        <v>Riyadh</v>
+        <v>RIYADH</v>
       </c>
       <c r="E7" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F7" t="str">
         <v>Not Available</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="str">
         <v>Arabian Towers Projects Contracting Company</v>
       </c>
-      <c r="B8" t="str">
+      <c r="C8" t="str">
         <v>220622064</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <v>DAMMAM</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <v>Eastern Province</v>
       </c>
-      <c r="E8" t="str">
+      <c r="F8" t="str">
         <v>Not Available</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Sharjah Development Contracting Co</v>
+      </c>
+      <c r="C9" t="str">
+        <v>144214428</v>
+      </c>
+      <c r="D9" t="str">
+        <v>AL KHOBAR</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="str">
         <v>TAKWEEN AND CONSTRUCTION</v>
       </c>
-      <c r="B9" t="str">
+      <c r="C10" t="str">
         <v>438043804</v>
       </c>
-      <c r="C9" t="str">
-        <v>RIYADH</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Riyadh</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Not Available</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Sharjah Development Contracting Co</v>
-      </c>
-      <c r="B10" t="str">
-        <v>144214428</v>
-      </c>
-      <c r="C10" t="str">
+      <c r="D10" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Ratel Al Sharq Contracting Company</v>
+      </c>
+      <c r="C11" t="str">
+        <v>101010104</v>
+      </c>
+      <c r="D11" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Dome Park Contracting Company</v>
+      </c>
+      <c r="C12" t="str">
+        <v>251725170</v>
+      </c>
+      <c r="D12" t="str">
+        <v>AL MUWAYH AL JADID</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Bunoon Wa Funoon Contracting Co.</v>
+      </c>
+      <c r="C13" t="str">
+        <v>138113818</v>
+      </c>
+      <c r="D13" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Al-Wessam Contracting Company</v>
+      </c>
+      <c r="C14" t="str">
+        <v>106110611</v>
+      </c>
+      <c r="D14" t="str">
+        <v>BILJURASHI</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Bahah</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Rasm Al Benaa Trading and Contracting Co</v>
+      </c>
+      <c r="C15" t="str">
+        <v>109910994</v>
+      </c>
+      <c r="D15" t="str">
+        <v>DAMMAM</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Al-Manarat Al-Dhahabiya Contracting Company</v>
+      </c>
+      <c r="C16" t="str">
+        <v>414741474</v>
+      </c>
+      <c r="D16" t="str">
+        <v>MUHAYIL</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Asir</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Wasl Al Khair Contracting Est</v>
+      </c>
+      <c r="C17" t="str">
+        <v>144614468</v>
+      </c>
+      <c r="D17" t="str">
+        <v>AHAD AL MUSARIHAH</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Jizan</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Al-Asas Engineering Corporation for General Contracting</v>
+      </c>
+      <c r="C18" t="str">
+        <v>400040009</v>
+      </c>
+      <c r="D18" t="str">
+        <v>AL MADINAH AL MUNAWWARAH</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Madinah</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Mona Nazzal Dehaidah Al Harbi General Contracting Est</v>
+      </c>
+      <c r="C19" t="str">
+        <v>232123211</v>
+      </c>
+      <c r="D19" t="str">
+        <v>BURAYDAH</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Qassim</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Munira Nasser Omair Al Omair Contracting Est</v>
+      </c>
+      <c r="C20" t="str">
+        <v>132413246</v>
+      </c>
+      <c r="D20" t="str">
+        <v>HAFAR AL BATIN</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Rawasi Sama Contracting Company</v>
+      </c>
+      <c r="C21" t="str">
+        <v>305530557</v>
+      </c>
+      <c r="D21" t="str">
+        <v>HAFAR AL BATIN</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Modern Building Solutions Contracting Company</v>
+      </c>
+      <c r="C22" t="str">
+        <v>121612167</v>
+      </c>
+      <c r="D22" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Mastery and Quality Architectural Contracting Est</v>
+      </c>
+      <c r="C24" t="str">
+        <v>131313131</v>
+      </c>
+      <c r="D24" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Manarat AlOmran AlHadeeth Contracting Est.</v>
+      </c>
+      <c r="C25" t="str">
+        <v>100008649</v>
+      </c>
+      <c r="D25" t="str">
+        <v>KHAMIS MUSHAYT</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Asir</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Future Houses General Architectural Contracting Est</v>
+      </c>
+      <c r="C26" t="str">
+        <v>117511752</v>
+      </c>
+      <c r="D26" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="str">
+        <v>acn solutions for contracting</v>
+      </c>
+      <c r="C27" t="str">
+        <v>446844684</v>
+      </c>
+      <c r="D27" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Fineun Alamar Contracting Est</v>
+      </c>
+      <c r="C28" t="str">
+        <v>177617761</v>
+      </c>
+      <c r="D28" t="str">
+        <v>RABIGH</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Unique Execution Corporation for General Contracting</v>
+      </c>
+      <c r="C29" t="str">
+        <v>181518150</v>
+      </c>
+      <c r="D29" t="str">
+        <v>JAZAN</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Jizan</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Tala Trading Company</v>
+      </c>
+      <c r="C30" t="str">
+        <v>100008050</v>
+      </c>
+      <c r="D30" t="str">
+        <v>HAIL</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Hail</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Maha Ghadeer Ramadan Al Shammari General Contracting Est</v>
+      </c>
+      <c r="C31" t="str">
+        <v>180118011</v>
+      </c>
+      <c r="D31" t="str">
+        <v>AL HUFUF</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Najmat Al Mimar General Contracting Company (one person company)</v>
+      </c>
+      <c r="C32" t="str">
+        <v>281528159</v>
+      </c>
+      <c r="D32" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Wissam Al-Washm General Contracting Est</v>
+      </c>
+      <c r="C33" t="str">
+        <v>200120015</v>
+      </c>
+      <c r="D33" t="str">
+        <v>SHAQRA'</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="str">
+        <v>My Best Choice Contracting Est</v>
+      </c>
+      <c r="C34" t="str">
+        <v>100004514</v>
+      </c>
+      <c r="D34" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="str">
+        <v>New Lover Home General Contracting Est</v>
+      </c>
+      <c r="C35" t="str">
+        <v>138713878</v>
+      </c>
+      <c r="D35" t="str">
+        <v>BURAYDAH</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Qassim</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Access point for contracting</v>
+      </c>
+      <c r="C36" t="str">
+        <v>384138419</v>
+      </c>
+      <c r="D36" t="str">
+        <v>AL KHAFJI</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Mosanadat Alemdad Company Ltd.</v>
+      </c>
+      <c r="C37" t="str">
+        <v>100003449</v>
+      </c>
+      <c r="D37" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Saudi Services For Electro Mechanic Works</v>
+      </c>
+      <c r="C38" t="str">
+        <v>10000044</v>
+      </c>
+      <c r="D38" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Awjed General Contracting Company</v>
+      </c>
+      <c r="C39" t="str">
+        <v>100007262</v>
+      </c>
+      <c r="D39" t="str">
+        <v>DAMMAM</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Albabtain Contracting Company</v>
+      </c>
+      <c r="C40" t="str">
+        <v>10001767</v>
+      </c>
+      <c r="D40" t="str">
+        <v>DAMMAM</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Experience Castle Contracting Company</v>
+      </c>
+      <c r="C41" t="str">
+        <v>100006803</v>
+      </c>
+      <c r="D41" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Alsaad General Contracting Company Ltd.</v>
+      </c>
+      <c r="C42" t="str">
+        <v>20002951</v>
+      </c>
+      <c r="D42" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Pro Fast Company Ltd</v>
+      </c>
+      <c r="C43" t="str">
+        <v>20003219</v>
+      </c>
+      <c r="D43" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Fidak Company for Roads and Contracting</v>
+      </c>
+      <c r="C45" t="str">
+        <v>10001297</v>
+      </c>
+      <c r="D45" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Elkhereiji Commerce &amp; contracting Co</v>
+      </c>
+      <c r="C46" t="str">
+        <v>10000746</v>
+      </c>
+      <c r="D46" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Thabat Construction Company Ltd</v>
+      </c>
+      <c r="C47" t="str">
+        <v>100003366</v>
+      </c>
+      <c r="D47" t="str">
+        <v>DAMMAM</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Afaq Almanzil Construction &amp; Development Company Ltd.</v>
+      </c>
+      <c r="C48" t="str">
+        <v>20002163</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Alsahda Contracting Est.</v>
+      </c>
+      <c r="C49" t="str">
+        <v>20002666</v>
+      </c>
+      <c r="D49" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Nova Sat Commercial Company Joint-stock One Person Company</v>
+      </c>
+      <c r="C50" t="str">
+        <v>10001003</v>
+      </c>
+      <c r="D50" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Al-Deyabi Contracting Group</v>
+      </c>
+      <c r="C51" t="str">
+        <v>10002269</v>
+      </c>
+      <c r="D51" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Maqasim Company Limited</v>
+      </c>
+      <c r="C52" t="str">
+        <v>100004818</v>
+      </c>
+      <c r="D52" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Al-Majal Syd Al-Khadamat Co.</v>
+      </c>
+      <c r="C53" t="str">
+        <v>20001920</v>
+      </c>
+      <c r="D53" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Albawani Co. Ltd.</v>
+      </c>
+      <c r="C54" t="str">
+        <v>10001023</v>
+      </c>
+      <c r="D54" t="str">
+        <v>DAMMAM</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Nabny Co.Ltd</v>
+      </c>
+      <c r="C55" t="str">
+        <v>100007123</v>
+      </c>
+      <c r="D55" t="str">
+        <v>TABUK</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Tabuk</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Al-Rawaf Contracting Co.</v>
+      </c>
+      <c r="C56" t="str">
+        <v>10001197</v>
+      </c>
+      <c r="D56" t="str">
+        <v>BURAYDAH</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Qassim</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="str">
+        <v>National Water Works Company</v>
+      </c>
+      <c r="C57" t="str">
+        <v>100004251</v>
+      </c>
+      <c r="D57" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Mounes Mohamed Alshayeb for Civil Construction "MOBCO"</v>
+      </c>
+      <c r="C58" t="str">
+        <v>200004541</v>
+      </c>
+      <c r="D58" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Safar Trading and Contracting Company</v>
+      </c>
+      <c r="C59" t="str">
+        <v>10001562</v>
+      </c>
+      <c r="D59" t="str">
+        <v>MAKKAH AL MUKARRAMAH</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Technical Support Company for Industrial Services</v>
+      </c>
+      <c r="C60" t="str">
+        <v>100007290</v>
+      </c>
+      <c r="D60" t="str">
+        <v>AL JUBAIL</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Naif Awadh Alboqmi Contracting Est</v>
+      </c>
+      <c r="C61" t="str">
+        <v>100007417</v>
+      </c>
+      <c r="D61" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Evolution Electrical &amp; Mechanical Services Company</v>
+      </c>
+      <c r="C62" t="str">
+        <v>10001453</v>
+      </c>
+      <c r="D62" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Branch of National Power Construction Corporation Ltd.</v>
+      </c>
+      <c r="C63" t="str">
+        <v>200006257</v>
+      </c>
+      <c r="D63" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Nesma United Industries Company Ltd.</v>
+      </c>
+      <c r="C64" t="str">
+        <v>10001285</v>
+      </c>
+      <c r="D64" t="str">
         <v>AL KHOBAR</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E64" t="str">
         <v>Eastern Province</v>
       </c>
-      <c r="E10" t="str">
-        <v>Not Available</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Ratel Al Sharq Contracting Company</v>
-      </c>
-      <c r="B11" t="str">
-        <v>101010104</v>
-      </c>
-      <c r="C11" t="str">
-        <v>RIYADH</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Riyadh</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Not Available</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Dome Park Contracting Company</v>
-      </c>
-      <c r="B12" t="str">
-        <v>251725170</v>
-      </c>
-      <c r="C12" t="str">
-        <v>AL MUWAYH AL JADID</v>
-      </c>
-      <c r="D12" t="str">
+      <c r="F64" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65" t="str">
+        <v/>
+      </c>
+      <c r="C65" t="str">
+        <v/>
+      </c>
+      <c r="D65" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Nesma Al Sondos Contracting Company</v>
+      </c>
+      <c r="C66" t="str">
+        <v>100006680</v>
+      </c>
+      <c r="D66" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Arabian Shadows Company for Trading and Contracting</v>
+      </c>
+      <c r="C67" t="str">
+        <v>100004520</v>
+      </c>
+      <c r="D67" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Architectural Interface Contracting Co.</v>
+      </c>
+      <c r="C68" t="str">
+        <v>100006049</v>
+      </c>
+      <c r="D68" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Mofarreh Marzouq Alharbi &amp; Partners Co. Ltd.</v>
+      </c>
+      <c r="C69" t="str">
+        <v>10001405</v>
+      </c>
+      <c r="D69" t="str">
+        <v>SAFWA</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Madarat Alwasat Contracting Company</v>
+      </c>
+      <c r="C70" t="str">
+        <v>100003521</v>
+      </c>
+      <c r="D70" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Al Dousor International Co Ltd</v>
+      </c>
+      <c r="C71" t="str">
+        <v>100006233</v>
+      </c>
+      <c r="D71" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E71" t="str">
         <v>Makkah</v>
       </c>
-      <c r="E12" t="str">
-        <v>Not Available</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Bunoon Wa Funoon Contracting Co.</v>
-      </c>
-      <c r="B13" t="str">
-        <v>138113818</v>
-      </c>
-      <c r="C13" t="str">
-        <v>RIYADH</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Riyadh</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Not Available</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Rasm Al Benaa Trading and Contracting Co</v>
-      </c>
-      <c r="B14" t="str">
-        <v>109910994</v>
-      </c>
-      <c r="C14" t="str">
+      <c r="F71" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Saudi Urban Development Company</v>
+      </c>
+      <c r="C72" t="str">
+        <v>100005156</v>
+      </c>
+      <c r="D72" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Mebrick Masoud Al-Khamisi Contracting Company is a one-person company</v>
+      </c>
+      <c r="C73" t="str">
+        <v>10002323</v>
+      </c>
+      <c r="D73" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F73" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" t="str">
+        <v>MHI-AP Saudi Arabia Co. Ltd</v>
+      </c>
+      <c r="C74" t="str">
+        <v>100005345</v>
+      </c>
+      <c r="D74" t="str">
+        <v>AL JUBAIL</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Nesma Infrastructure and Technology Company Limited</v>
+      </c>
+      <c r="C75" t="str">
+        <v>10001007</v>
+      </c>
+      <c r="D75" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76" t="str">
+        <v>United Cell Company for Pest Control</v>
+      </c>
+      <c r="C76" t="str">
+        <v>100005364</v>
+      </c>
+      <c r="D76" t="str">
         <v>DAMMAM</v>
       </c>
-      <c r="D14" t="str">
+      <c r="E76" t="str">
         <v>Eastern Province</v>
       </c>
-      <c r="E14" t="str">
-        <v>Not Available</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Al-Wessam Contracting Company</v>
-      </c>
-      <c r="B15" t="str">
-        <v>106110611</v>
-      </c>
-      <c r="C15" t="str">
+      <c r="F76" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Gulf Development Contracting Company</v>
+      </c>
+      <c r="C77" t="str">
+        <v>10002784</v>
+      </c>
+      <c r="D77" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Saudi Electronic Computers Company</v>
+      </c>
+      <c r="C78" t="str">
+        <v>10003104</v>
+      </c>
+      <c r="D78" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F78" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Bani Al Jazeera Contracting Company</v>
+      </c>
+      <c r="C79" t="str">
+        <v>10001972</v>
+      </c>
+      <c r="D79" t="str">
+        <v>AL KHOBAR</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Awad Saad Binzafrah Contracting Company</v>
+      </c>
+      <c r="C80" t="str">
+        <v>10001760</v>
+      </c>
+      <c r="D80" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Atheeb Intergraph Saudi Company</v>
+      </c>
+      <c r="C81" t="str">
+        <v>10003118</v>
+      </c>
+      <c r="D81" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Shabakat Altoorq Contracting Company</v>
+      </c>
+      <c r="C82" t="str">
+        <v>100003805</v>
+      </c>
+      <c r="D82" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Pioneers Technical Trading &amp; General Contracting Ltd.</v>
+      </c>
+      <c r="C83" t="str">
+        <v>100003917</v>
+      </c>
+      <c r="D83" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Deep Ocean Contracting Company</v>
+      </c>
+      <c r="C84" t="str">
+        <v>10002099</v>
+      </c>
+      <c r="D84" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Al-Yamamah Trading and Contracting Company</v>
+      </c>
+      <c r="C85" t="str">
+        <v>10000102</v>
+      </c>
+      <c r="D85" t="str">
+        <v>DAMMAM</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86" t="str">
+        <v/>
+      </c>
+      <c r="C86" t="str">
+        <v/>
+      </c>
+      <c r="D86" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Saudi Electrical Contracting Company</v>
+      </c>
+      <c r="C87" t="str">
+        <v>20001177</v>
+      </c>
+      <c r="D87" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Abdullah Assaf Mohammed Al Ghamdi Contracting Est</v>
+      </c>
+      <c r="C88" t="str">
+        <v>10000799</v>
+      </c>
+      <c r="D88" t="str">
         <v>BILJURASHI</v>
       </c>
-      <c r="D15" t="str">
+      <c r="E88" t="str">
         <v>Bahah</v>
       </c>
-      <c r="E15" t="str">
-        <v>Not Available</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Mastery and Quality Architectural Contracting Est</v>
-      </c>
-      <c r="B16" t="str">
-        <v>131313131</v>
-      </c>
-      <c r="C16" t="str">
+      <c r="F88" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Saudi Sicli Company</v>
+      </c>
+      <c r="C89" t="str">
+        <v>10001887</v>
+      </c>
+      <c r="D89" t="str">
         <v>JEDDAH</v>
       </c>
-      <c r="D16" t="str">
+      <c r="E89" t="str">
         <v>Makkah</v>
       </c>
-      <c r="E16" t="str">
-        <v>Not Available</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Mona Nazzal Dehaidah Al Harbi General Contracting Est</v>
-      </c>
-      <c r="B17" t="str">
-        <v>232123211</v>
-      </c>
-      <c r="C17" t="str">
-        <v>BURAYDAH</v>
-      </c>
-      <c r="D17" t="str">
-        <v>Qassim</v>
-      </c>
-      <c r="E17" t="str">
-        <v>Not Available</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Future Houses General Architectural Contracting Est</v>
-      </c>
-      <c r="B18" t="str">
-        <v>117511752</v>
-      </c>
-      <c r="C18" t="str">
-        <v>RIYADH</v>
-      </c>
-      <c r="D18" t="str">
-        <v>Riyadh</v>
-      </c>
-      <c r="E18" t="str">
-        <v>Not Available</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Al-Manarat Al-Dhahabiya Contracting Company</v>
-      </c>
-      <c r="B19" t="str">
-        <v>414741474</v>
-      </c>
-      <c r="C19" t="str">
+      <c r="F89" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Ahmed Nasser Al Binali &amp; Sons Trading &amp; Contracting Company</v>
+      </c>
+      <c r="C90" t="str">
+        <v>10000846</v>
+      </c>
+      <c r="D90" t="str">
+        <v>DHAHRAN</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Safety Triangle Company for General Contracting</v>
+      </c>
+      <c r="C91" t="str">
+        <v>10001974</v>
+      </c>
+      <c r="D91" t="str">
+        <v>ABHA</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Asir</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>5</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Bin Delamah Contracting</v>
+      </c>
+      <c r="C92" t="str">
+        <v>10001161</v>
+      </c>
+      <c r="D92" t="str">
+        <v>RAS TANNURAH</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Branch of Amazan Contracting Est.</v>
+      </c>
+      <c r="C93" t="str">
+        <v>100007159</v>
+      </c>
+      <c r="D93" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Arab Peller Trading and Contracting Company</v>
+      </c>
+      <c r="C94" t="str">
+        <v>10001816</v>
+      </c>
+      <c r="D94" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Bakri Ahmed Hassan Al Saab Contracting Company</v>
+      </c>
+      <c r="C95" t="str">
+        <v>10002598</v>
+      </c>
+      <c r="D95" t="str">
         <v>MUHAYIL</v>
       </c>
-      <c r="D19" t="str">
+      <c r="E95" t="str">
         <v>Asir</v>
       </c>
-      <c r="E19" t="str">
-        <v>Not Available</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Modern Building Solutions Contracting Company</v>
-      </c>
-      <c r="B20" t="str">
-        <v>121612167</v>
-      </c>
-      <c r="C20" t="str">
-        <v>RIYADH</v>
-      </c>
-      <c r="D20" t="str">
-        <v>Riyadh</v>
-      </c>
-      <c r="E20" t="str">
-        <v>Not Available</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Rawasi Sama Contracting Company</v>
-      </c>
-      <c r="B21" t="str">
-        <v>305530557</v>
-      </c>
-      <c r="C21" t="str">
-        <v>HAFAR AL BATIN</v>
-      </c>
-      <c r="D21" t="str">
+      <c r="F95" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Amart Ouf Contracting Est</v>
+      </c>
+      <c r="C96" t="str">
+        <v>132313236</v>
+      </c>
+      <c r="D96" t="str">
+        <v>AL MADINAH AL MUNAWWARAH</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Madinah</v>
+      </c>
+      <c r="F96" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>5</v>
+      </c>
+      <c r="B97" t="str">
+        <v>National Computer Systems Company</v>
+      </c>
+      <c r="C97" t="str">
+        <v>100006355</v>
+      </c>
+      <c r="D97" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F97" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Building Construction Co. Ltd.</v>
+      </c>
+      <c r="C98" t="str">
+        <v>10003238</v>
+      </c>
+      <c r="D98" t="str">
+        <v>AL KHOBAR</v>
+      </c>
+      <c r="E98" t="str">
         <v>Eastern Province</v>
       </c>
-      <c r="E21" t="str">
-        <v>Not Available</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>Wasl Al Khair Contracting Est</v>
-      </c>
-      <c r="B22" t="str">
-        <v>144614468</v>
-      </c>
-      <c r="C22" t="str">
-        <v>AHAD AL MUSARIHAH</v>
-      </c>
-      <c r="D22" t="str">
+      <c r="F98" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Arabian Yalin Contracting Company Ltd.</v>
+      </c>
+      <c r="C99" t="str">
+        <v>10002714</v>
+      </c>
+      <c r="D99" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F99" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Zahrat Al-Sahraa Trading and Contracting Company, a closed joint stock</v>
+      </c>
+      <c r="C100" t="str">
+        <v>10002643</v>
+      </c>
+      <c r="D100" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F100" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Emtiyaz Elorobah Company</v>
+      </c>
+      <c r="C101" t="str">
+        <v>100003545</v>
+      </c>
+      <c r="D101" t="str">
+        <v>AZ ZULFI</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Modern Electricity Contracting Company</v>
+      </c>
+      <c r="C102" t="str">
+        <v>10000805</v>
+      </c>
+      <c r="D102" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Multiple business portfolio for projects</v>
+      </c>
+      <c r="C103" t="str">
+        <v>10000792</v>
+      </c>
+      <c r="D103" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E103" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F103" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>5</v>
+      </c>
+      <c r="B104" t="str">
+        <v>SGS Inspection Services Saudi Arabia Company Ltd</v>
+      </c>
+      <c r="C104" t="str">
+        <v>30001683</v>
+      </c>
+      <c r="D104" t="str">
+        <v>AL JUBAIL</v>
+      </c>
+      <c r="E104" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F104" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Attejarat Company</v>
+      </c>
+      <c r="C105" t="str">
+        <v>10002744</v>
+      </c>
+      <c r="D105" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E105" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F105" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Leaders Contracting Est</v>
+      </c>
+      <c r="C106" t="str">
+        <v>10001965</v>
+      </c>
+      <c r="D106" t="str">
+        <v>AL ATAWLAH</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Bahah</v>
+      </c>
+      <c r="F106" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>6</v>
+      </c>
+      <c r="B107" t="str">
+        <v/>
+      </c>
+      <c r="C107" t="str">
+        <v/>
+      </c>
+      <c r="D107" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="E107" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>6</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Amjad Abdlwahed Mohamed Contracting Est</v>
+      </c>
+      <c r="C108" t="str">
+        <v>100006449</v>
+      </c>
+      <c r="D108" t="str">
+        <v>MUHAYIL</v>
+      </c>
+      <c r="E108" t="str">
+        <v>Asir</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>6</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Fawares Al Olaya Contracting Company</v>
+      </c>
+      <c r="C109" t="str">
+        <v>100004211</v>
+      </c>
+      <c r="D109" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E109" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>6</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Sultan Al-Zahrani Contracting Establishment</v>
+      </c>
+      <c r="C110" t="str">
+        <v>10001148</v>
+      </c>
+      <c r="D110" t="str">
+        <v>DAMMAM</v>
+      </c>
+      <c r="E110" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F110" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>6</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Awdah Albiladi And His Sons Contracting Est</v>
+      </c>
+      <c r="C111" t="str">
+        <v>100004137</v>
+      </c>
+      <c r="D111" t="str">
+        <v>AL MADINAH AL MUNAWWARAH</v>
+      </c>
+      <c r="E111" t="str">
+        <v>Madinah</v>
+      </c>
+      <c r="F111" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>6</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Saudi Electronic Trading and Contracting Company</v>
+      </c>
+      <c r="C112" t="str">
+        <v>200006548</v>
+      </c>
+      <c r="D112" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E112" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F112" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>6</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Tasheed Almsaken Contracting Co</v>
+      </c>
+      <c r="C113" t="str">
+        <v>10001419</v>
+      </c>
+      <c r="D113" t="str">
+        <v>HAIL</v>
+      </c>
+      <c r="E113" t="str">
+        <v>Hail</v>
+      </c>
+      <c r="F113" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>6</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Abdulmohsen Aljasser Contracting Company</v>
+      </c>
+      <c r="C114" t="str">
+        <v>100004498</v>
+      </c>
+      <c r="D114" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E114" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F114" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>6</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Jabal Beshah General Contracting Est.</v>
+      </c>
+      <c r="C115" t="str">
+        <v>10002386</v>
+      </c>
+      <c r="D115" t="str">
+        <v>JAZAN</v>
+      </c>
+      <c r="E115" t="str">
         <v>Jizan</v>
       </c>
-      <c r="E22" t="str">
+      <c r="F115" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>6</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Midad Company Limited</v>
+      </c>
+      <c r="C116" t="str">
+        <v>10002928</v>
+      </c>
+      <c r="D116" t="str">
+        <v>AL KHOBAR</v>
+      </c>
+      <c r="E116" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F116" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>6</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Abdullah Hamoud Alshuwayer Sons Trading &amp; Contracting Co</v>
+      </c>
+      <c r="C117" t="str">
+        <v>10001371</v>
+      </c>
+      <c r="D117" t="str">
+        <v>DAMMAM</v>
+      </c>
+      <c r="E117" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F117" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>6</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Eastern Projects Contracting Co. For Building Works</v>
+      </c>
+      <c r="C118" t="str">
+        <v>10000106</v>
+      </c>
+      <c r="D118" t="str">
+        <v>AL HUFUF</v>
+      </c>
+      <c r="E118" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F118" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>6</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Al Baraka Construction Company L.L.C</v>
+      </c>
+      <c r="C119" t="str">
+        <v>100004075</v>
+      </c>
+      <c r="D119" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E119" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F119" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>6</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Ground Engineering Contracting Co.</v>
+      </c>
+      <c r="C120" t="str">
+        <v>20001464</v>
+      </c>
+      <c r="D120" t="str">
+        <v>DAMMAM</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F120" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>6</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Dar Alsammar for Contracting Co</v>
+      </c>
+      <c r="C121" t="str">
+        <v>10002935</v>
+      </c>
+      <c r="D121" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E121" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F121" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>6</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Diamond Contractors Union Company for General Contracting</v>
+      </c>
+      <c r="C122" t="str">
+        <v>10001111</v>
+      </c>
+      <c r="D122" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E122" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F122" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>6</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Dera'a Altatweer Trading Company</v>
+      </c>
+      <c r="C123" t="str">
+        <v>100003470</v>
+      </c>
+      <c r="D123" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E123" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F123" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>6</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Helal Moshabab Al Otaibi Contracting Co.</v>
+      </c>
+      <c r="C124" t="str">
+        <v>100004393</v>
+      </c>
+      <c r="D124" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E124" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F124" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>6</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Depth Construction Contracting Company</v>
+      </c>
+      <c r="C125" t="str">
+        <v>10000785</v>
+      </c>
+      <c r="D125" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E125" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F125" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>6</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Alkhorayef Water &amp; Power Technologies Company</v>
+      </c>
+      <c r="C126" t="str">
+        <v>10002677</v>
+      </c>
+      <c r="D126" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E126" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F126" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Althat Alarabia Company</v>
+      </c>
+      <c r="C127" t="str">
+        <v>100004909</v>
+      </c>
+      <c r="D127" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E127" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F127" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>7</v>
+      </c>
+      <c r="B128" t="str">
+        <v/>
+      </c>
+      <c r="C128" t="str">
+        <v/>
+      </c>
+      <c r="D128" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="E128" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="F128" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>7</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Amarah Intl Architect Construction &amp; Finishing Ltd Co</v>
+      </c>
+      <c r="C129" t="str">
+        <v>10000719</v>
+      </c>
+      <c r="D129" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E129" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F129" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>7</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Ansab General Contracting Company</v>
+      </c>
+      <c r="C130" t="str">
+        <v>100005137</v>
+      </c>
+      <c r="D130" t="str">
+        <v>AL KHOBAR</v>
+      </c>
+      <c r="E130" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F130" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>7</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Saad Hussein Bin Khammash and Sons Company for Trading, Industry, and Contracting</v>
+      </c>
+      <c r="C131" t="str">
+        <v>100003851</v>
+      </c>
+      <c r="D131" t="str">
+        <v>KHAMIS MUSHAYT</v>
+      </c>
+      <c r="E131" t="str">
+        <v>Asir</v>
+      </c>
+      <c r="F131" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>7</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Power Lines Contracting Co.</v>
+      </c>
+      <c r="C132" t="str">
+        <v>10002512</v>
+      </c>
+      <c r="D132" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E132" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F132" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>7</v>
+      </c>
+      <c r="B133" t="str">
+        <v>International for Modern Industries Co</v>
+      </c>
+      <c r="C133" t="str">
+        <v>10001505</v>
+      </c>
+      <c r="D133" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E133" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F133" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>7</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Abdullah Ayed Alanzi General Contracting Co</v>
+      </c>
+      <c r="C134" t="str">
+        <v>10002750</v>
+      </c>
+      <c r="D134" t="str">
+        <v>SAYHAT</v>
+      </c>
+      <c r="E134" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F134" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>7</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Kenan Arabian General Contracting Est</v>
+      </c>
+      <c r="C135" t="str">
+        <v>10001176</v>
+      </c>
+      <c r="D135" t="str">
+        <v>JAZAN</v>
+      </c>
+      <c r="E135" t="str">
+        <v>Jizan</v>
+      </c>
+      <c r="F135" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>7</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Arch Company for Technical Development</v>
+      </c>
+      <c r="C136" t="str">
+        <v>100006571</v>
+      </c>
+      <c r="D136" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F136" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>7</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Youssef Marroun Contracting Co.</v>
+      </c>
+      <c r="C137" t="str">
+        <v>100007451</v>
+      </c>
+      <c r="D137" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E137" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F137" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>7</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Modern Insulation Industries Company</v>
+      </c>
+      <c r="C138" t="str">
+        <v>100006190</v>
+      </c>
+      <c r="D138" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E138" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F138" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>7</v>
+      </c>
+      <c r="B139" t="str">
+        <v>International Hospitals Construction Co Ltd</v>
+      </c>
+      <c r="C139" t="str">
+        <v>10000932</v>
+      </c>
+      <c r="D139" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E139" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F139" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>7</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Al-Jehaz Contracting Company</v>
+      </c>
+      <c r="C140" t="str">
+        <v>10001195</v>
+      </c>
+      <c r="D140" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E140" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F140" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>7</v>
+      </c>
+      <c r="B141" t="str">
+        <v>Marasah Company</v>
+      </c>
+      <c r="C141" t="str">
+        <v>10000911</v>
+      </c>
+      <c r="D141" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E141" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F141" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>7</v>
+      </c>
+      <c r="B142" t="str">
+        <v>Bin Omaira Contracting Company LTD.</v>
+      </c>
+      <c r="C142" t="str">
+        <v>10001055</v>
+      </c>
+      <c r="D142" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E142" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F142" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>7</v>
+      </c>
+      <c r="B143" t="str">
+        <v>Mashreq Heritage Company for Contracting</v>
+      </c>
+      <c r="C143" t="str">
+        <v>1000020000104</v>
+      </c>
+      <c r="D143" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E143" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F143" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>7</v>
+      </c>
+      <c r="B144" t="str">
+        <v>ِ Almayssan Technical Services Co Ltd</v>
+      </c>
+      <c r="C144" t="str">
+        <v>100006543</v>
+      </c>
+      <c r="D144" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E144" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F144" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>7</v>
+      </c>
+      <c r="B145" t="str">
+        <v>Saraya Alandalus For Contracting Company</v>
+      </c>
+      <c r="C145" t="str">
+        <v>20002408</v>
+      </c>
+      <c r="D145" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E145" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F145" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>7</v>
+      </c>
+      <c r="B146" t="str">
+        <v>Electrical Power Systems Contracting Est</v>
+      </c>
+      <c r="C146" t="str">
+        <v>100006289</v>
+      </c>
+      <c r="D146" t="str">
+        <v>'INAK</v>
+      </c>
+      <c r="E146" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F146" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>7</v>
+      </c>
+      <c r="B147" t="str">
+        <v>Hadi Haider Alyami Company General Cont. &amp; Trading</v>
+      </c>
+      <c r="C147" t="str">
+        <v>10003081</v>
+      </c>
+      <c r="D147" t="str">
+        <v>RAS TANNURAH</v>
+      </c>
+      <c r="E147" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F147" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>7</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Arkal Contracting Company</v>
+      </c>
+      <c r="C148" t="str">
+        <v>10001010</v>
+      </c>
+      <c r="D148" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E148" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F148" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>8</v>
+      </c>
+      <c r="B149" t="str">
+        <v/>
+      </c>
+      <c r="C149" t="str">
+        <v/>
+      </c>
+      <c r="D149" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="E149" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="F149" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>8</v>
+      </c>
+      <c r="B150" t="str">
+        <v>Gulf Cooperation Symbols Contracting Company Limited</v>
+      </c>
+      <c r="C150" t="str">
+        <v>30001181</v>
+      </c>
+      <c r="D150" t="str">
+        <v>AL KHOBAR</v>
+      </c>
+      <c r="E150" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F150" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>8</v>
+      </c>
+      <c r="B151" t="str">
+        <v>Cities Linking Co. for Construction</v>
+      </c>
+      <c r="C151" t="str">
+        <v>10001982</v>
+      </c>
+      <c r="D151" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E151" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F151" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>8</v>
+      </c>
+      <c r="B152" t="str">
+        <v>GRC Touch Company</v>
+      </c>
+      <c r="C152" t="str">
+        <v>100004851</v>
+      </c>
+      <c r="D152" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E152" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F152" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>8</v>
+      </c>
+      <c r="B153" t="str">
+        <v>Basmt Laith for Contracting</v>
+      </c>
+      <c r="C153" t="str">
+        <v>10002385</v>
+      </c>
+      <c r="D153" t="str">
+        <v>AL LITH</v>
+      </c>
+      <c r="E153" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F153" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>8</v>
+      </c>
+      <c r="B154" t="str">
+        <v>Osama Zaid Azraq EST</v>
+      </c>
+      <c r="C154" t="str">
+        <v>10001089</v>
+      </c>
+      <c r="D154" t="str">
+        <v>MAKKAH AL MUKARRAMAH</v>
+      </c>
+      <c r="E154" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F154" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>8</v>
+      </c>
+      <c r="B155" t="str">
+        <v>Nfoud Alathereia Contracting Co.</v>
+      </c>
+      <c r="C155" t="str">
+        <v>100005978</v>
+      </c>
+      <c r="D155" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E155" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F155" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>8</v>
+      </c>
+      <c r="B156" t="str">
+        <v>Saudi Media Systems Co</v>
+      </c>
+      <c r="C156" t="str">
+        <v>100006342</v>
+      </c>
+      <c r="D156" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E156" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F156" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>8</v>
+      </c>
+      <c r="B157" t="str">
+        <v>Raghad Projects Contracting Est.</v>
+      </c>
+      <c r="C157" t="str">
+        <v>10002082</v>
+      </c>
+      <c r="D157" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E157" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F157" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>8</v>
+      </c>
+      <c r="B158" t="str">
+        <v>Shibh Aljazira Contracting Company</v>
+      </c>
+      <c r="C158" t="str">
+        <v>10000760</v>
+      </c>
+      <c r="D158" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E158" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F158" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>8</v>
+      </c>
+      <c r="B159" t="str">
+        <v>Al-Asila Solutions Co., Ltd</v>
+      </c>
+      <c r="C159" t="str">
+        <v>30002587</v>
+      </c>
+      <c r="D159" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E159" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F159" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>8</v>
+      </c>
+      <c r="B160" t="str">
+        <v>Al - Yousr Al-Arabia General Contracting Co</v>
+      </c>
+      <c r="C160" t="str">
+        <v>10002350</v>
+      </c>
+      <c r="D160" t="str">
+        <v>NAJRAN</v>
+      </c>
+      <c r="E160" t="str">
+        <v>Najran</v>
+      </c>
+      <c r="F160" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>8</v>
+      </c>
+      <c r="B161" t="str">
+        <v>Nesma &amp; Partners Contracting Company Ltd.</v>
+      </c>
+      <c r="C161" t="str">
+        <v>10001763</v>
+      </c>
+      <c r="D161" t="str">
+        <v>AL KHOBAR</v>
+      </c>
+      <c r="E161" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F161" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162" t="str">
+        <v>Ibrahim M Alaboud Co for Development</v>
+      </c>
+      <c r="C162" t="str">
+        <v>100006300</v>
+      </c>
+      <c r="D162" t="str">
+        <v>AD DUWADIMI</v>
+      </c>
+      <c r="E162" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F162" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>8</v>
+      </c>
+      <c r="B163" t="str">
+        <v>ITEA International Ltd</v>
+      </c>
+      <c r="C163" t="str">
+        <v>20001370</v>
+      </c>
+      <c r="D163" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E163" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F163" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>8</v>
+      </c>
+      <c r="B164" t="str">
+        <v>Al Jazera Al Arabia Industries, Trading and Contracting Co.ltd</v>
+      </c>
+      <c r="C164" t="str">
+        <v>10001484</v>
+      </c>
+      <c r="D164" t="str">
+        <v>AT TAIF</v>
+      </c>
+      <c r="E164" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F164" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>8</v>
+      </c>
+      <c r="B165" t="str">
+        <v>Arabian Building Support and Rehabilitation Co. Ltd.</v>
+      </c>
+      <c r="C165" t="str">
+        <v>10001986</v>
+      </c>
+      <c r="D165" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E165" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F165" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>8</v>
+      </c>
+      <c r="B166" t="str">
+        <v>Mishraf Al Madain Contracting Company</v>
+      </c>
+      <c r="C166" t="str">
+        <v>10002938</v>
+      </c>
+      <c r="D166" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E166" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F166" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>8</v>
+      </c>
+      <c r="B167" t="str">
+        <v>Fire Direct Centre Company LTD</v>
+      </c>
+      <c r="C167" t="str">
+        <v>100006246</v>
+      </c>
+      <c r="D167" t="str">
+        <v>DAMMAM</v>
+      </c>
+      <c r="E167" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F167" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>8</v>
+      </c>
+      <c r="B168" t="str">
+        <v>Energy Power Service for General Contracting Est</v>
+      </c>
+      <c r="C168" t="str">
+        <v>100007141</v>
+      </c>
+      <c r="D168" t="str">
+        <v>DAMMAM</v>
+      </c>
+      <c r="E168" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F168" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>8</v>
+      </c>
+      <c r="B169" t="str">
+        <v>Arab Builders for Telecommunications and Security Services</v>
+      </c>
+      <c r="C169" t="str">
+        <v>100004019</v>
+      </c>
+      <c r="D169" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E169" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F169" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>9</v>
+      </c>
+      <c r="B170" t="str">
+        <v/>
+      </c>
+      <c r="C170" t="str">
+        <v/>
+      </c>
+      <c r="D170" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="E170" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="F170" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>9</v>
+      </c>
+      <c r="B171" t="str">
+        <v>Al - Orini Contracting Company</v>
+      </c>
+      <c r="C171" t="str">
+        <v>10000839</v>
+      </c>
+      <c r="D171" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E171" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F171" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>9</v>
+      </c>
+      <c r="B172" t="str">
+        <v>Concrete Technology Contracting Company</v>
+      </c>
+      <c r="C172" t="str">
+        <v>100003782</v>
+      </c>
+      <c r="D172" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E172" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F172" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>9</v>
+      </c>
+      <c r="B173" t="str">
+        <v>Building Walls Contracting Est</v>
+      </c>
+      <c r="C173" t="str">
+        <v>100007392</v>
+      </c>
+      <c r="D173" t="str">
+        <v>AL MUBARRAZ</v>
+      </c>
+      <c r="E173" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F173" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>9</v>
+      </c>
+      <c r="B174" t="str">
+        <v>Alrajeh Modern Contracting Co. Ltd.</v>
+      </c>
+      <c r="C174" t="str">
+        <v>10001221</v>
+      </c>
+      <c r="D174" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E174" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F174" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>9</v>
+      </c>
+      <c r="B175" t="str">
+        <v>Nour Communications Co.</v>
+      </c>
+      <c r="C175" t="str">
+        <v>10001329</v>
+      </c>
+      <c r="D175" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E175" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F175" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>9</v>
+      </c>
+      <c r="B176" t="str">
+        <v>Hamsat Almaseef Contracting Est</v>
+      </c>
+      <c r="C176" t="str">
+        <v>10001546</v>
+      </c>
+      <c r="D176" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E176" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F176" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>9</v>
+      </c>
+      <c r="B177" t="str">
+        <v>Kafou Technical Services Co Ltd.</v>
+      </c>
+      <c r="C177" t="str">
+        <v>100004499</v>
+      </c>
+      <c r="D177" t="str">
+        <v>AL KHOBAR</v>
+      </c>
+      <c r="E177" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F177" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>9</v>
+      </c>
+      <c r="B178" t="str">
+        <v>Al-Kifah Holding Company, Contracting Branch</v>
+      </c>
+      <c r="C178" t="str">
+        <v>10002946</v>
+      </c>
+      <c r="D178" t="str">
+        <v>DAMMAM</v>
+      </c>
+      <c r="E178" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F178" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>9</v>
+      </c>
+      <c r="B179" t="str">
+        <v>Mohammed Ahmed Al-Hilal Contracting Est</v>
+      </c>
+      <c r="C179" t="str">
+        <v>122512250</v>
+      </c>
+      <c r="D179" t="str">
+        <v>AL AHSA</v>
+      </c>
+      <c r="E179" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F179" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>9</v>
+      </c>
+      <c r="B180" t="str">
+        <v>Talbi Contracting Company</v>
+      </c>
+      <c r="C180" t="str">
+        <v>200003350</v>
+      </c>
+      <c r="D180" t="str">
+        <v>SAMTAH</v>
+      </c>
+      <c r="E180" t="str">
+        <v>Jizan</v>
+      </c>
+      <c r="F180" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>9</v>
+      </c>
+      <c r="B181" t="str">
+        <v>Environment Systems Contracting Est</v>
+      </c>
+      <c r="C181" t="str">
+        <v>100005173</v>
+      </c>
+      <c r="D181" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E181" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F181" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>9</v>
+      </c>
+      <c r="B182" t="str">
+        <v>Rowad Aljazeera Trading &amp; Contracting Company</v>
+      </c>
+      <c r="C182" t="str">
+        <v>100005005</v>
+      </c>
+      <c r="D182" t="str">
+        <v>AL HUFUF</v>
+      </c>
+      <c r="E182" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F182" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>9</v>
+      </c>
+      <c r="B183" t="str">
+        <v>Weltex Saudi Arabia Ltd</v>
+      </c>
+      <c r="C183" t="str">
+        <v>100006143</v>
+      </c>
+      <c r="D183" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E183" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F183" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>9</v>
+      </c>
+      <c r="B184" t="str">
+        <v>Enter For Communications &amp; Information Technology Co.</v>
+      </c>
+      <c r="C184" t="str">
+        <v>100004979</v>
+      </c>
+      <c r="D184" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="E184" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="F184" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>9</v>
+      </c>
+      <c r="B185" t="str">
+        <v>Awal Tasmim Company For Decoration</v>
+      </c>
+      <c r="C185" t="str">
+        <v>100007486</v>
+      </c>
+      <c r="D185" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E185" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F185" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>9</v>
+      </c>
+      <c r="B186" t="str">
+        <v>Alrajhi Building and Construction Co</v>
+      </c>
+      <c r="C186" t="str">
+        <v>100005210</v>
+      </c>
+      <c r="D186" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E186" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F186" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>9</v>
+      </c>
+      <c r="B187" t="str">
+        <v>18th Chinarailway Branch Peru Group Company Limited</v>
+      </c>
+      <c r="C187" t="str">
+        <v>20000803</v>
+      </c>
+      <c r="D187" t="str">
+        <v>DAMMAM</v>
+      </c>
+      <c r="E187" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F187" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>9</v>
+      </c>
+      <c r="B188" t="str">
+        <v>Smart Decoration Contracting Company</v>
+      </c>
+      <c r="C188" t="str">
+        <v>100003389</v>
+      </c>
+      <c r="D188" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E188" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F188" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>9</v>
+      </c>
+      <c r="B189" t="str">
+        <v>Altayyar Alarabi Contracting Company</v>
+      </c>
+      <c r="C189" t="str">
+        <v>150815082</v>
+      </c>
+      <c r="D189" t="str">
+        <v>AL MADINAH AL MUNAWWARAH</v>
+      </c>
+      <c r="E189" t="str">
+        <v>Madinah</v>
+      </c>
+      <c r="F189" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>9</v>
+      </c>
+      <c r="B190" t="str">
+        <v>Al-Haramain Trading &amp; Contracting Co.</v>
+      </c>
+      <c r="C190" t="str">
+        <v>10001319</v>
+      </c>
+      <c r="D190" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E190" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F190" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>10</v>
+      </c>
+      <c r="B191" t="str">
+        <v/>
+      </c>
+      <c r="C191" t="str">
+        <v/>
+      </c>
+      <c r="D191" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="E191" t="str">
+        <v>Not Available</v>
+      </c>
+      <c r="F191" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>10</v>
+      </c>
+      <c r="B192" t="str">
+        <v>Alhejaz Horizon Ltd. Company</v>
+      </c>
+      <c r="C192" t="str">
+        <v>100006812</v>
+      </c>
+      <c r="D192" t="str">
+        <v>MAKKAH AL MUKARRAMAH</v>
+      </c>
+      <c r="E192" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F192" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>10</v>
+      </c>
+      <c r="B193" t="str">
+        <v>Asaleeb Contracting Est</v>
+      </c>
+      <c r="C193" t="str">
+        <v>100006924</v>
+      </c>
+      <c r="D193" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E193" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F193" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>10</v>
+      </c>
+      <c r="B194" t="str">
+        <v>Rkan Alsmood General Contracting Co.</v>
+      </c>
+      <c r="C194" t="str">
+        <v>100005601</v>
+      </c>
+      <c r="D194" t="str">
+        <v>BISHAH</v>
+      </c>
+      <c r="E194" t="str">
+        <v>Asir</v>
+      </c>
+      <c r="F194" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>10</v>
+      </c>
+      <c r="B195" t="str">
+        <v>Specialists for Construction Services</v>
+      </c>
+      <c r="C195" t="str">
+        <v>10001026</v>
+      </c>
+      <c r="D195" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E195" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F195" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>10</v>
+      </c>
+      <c r="B196" t="str">
+        <v>Belt Industrial Company</v>
+      </c>
+      <c r="C196" t="str">
+        <v>10003183</v>
+      </c>
+      <c r="D196" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E196" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F196" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>10</v>
+      </c>
+      <c r="B197" t="str">
+        <v>Maramer Contracting Company</v>
+      </c>
+      <c r="C197" t="str">
+        <v>10002754</v>
+      </c>
+      <c r="D197" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E197" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F197" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>10</v>
+      </c>
+      <c r="B198" t="str">
+        <v>International Investment Contracting Company</v>
+      </c>
+      <c r="C198" t="str">
+        <v>100003890</v>
+      </c>
+      <c r="D198" t="str">
+        <v>NAJRAN</v>
+      </c>
+      <c r="E198" t="str">
+        <v>Najran</v>
+      </c>
+      <c r="F198" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>10</v>
+      </c>
+      <c r="B199" t="str">
+        <v>DELTA Co.</v>
+      </c>
+      <c r="C199" t="str">
+        <v>10000998</v>
+      </c>
+      <c r="D199" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E199" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F199" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>10</v>
+      </c>
+      <c r="B200" t="str">
+        <v>Kanabal Arabian Company Ltd.</v>
+      </c>
+      <c r="C200" t="str">
+        <v>100004801</v>
+      </c>
+      <c r="D200" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E200" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F200" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>10</v>
+      </c>
+      <c r="B201" t="str">
+        <v>Alrashid Trading &amp; Contracting Company</v>
+      </c>
+      <c r="C201" t="str">
+        <v>100003724</v>
+      </c>
+      <c r="D201" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E201" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F201" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>10</v>
+      </c>
+      <c r="B202" t="str">
+        <v>Sham Najd International Co Ltd</v>
+      </c>
+      <c r="C202" t="str">
+        <v>200006630</v>
+      </c>
+      <c r="D202" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E202" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F202" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>10</v>
+      </c>
+      <c r="B203" t="str">
+        <v>Branch of Alriyadah Investments Company Ltd.</v>
+      </c>
+      <c r="C203" t="str">
+        <v>100006953</v>
+      </c>
+      <c r="D203" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E203" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F203" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>10</v>
+      </c>
+      <c r="B204" t="str">
+        <v>Alqussie International Company</v>
+      </c>
+      <c r="C204" t="str">
+        <v>10002479</v>
+      </c>
+      <c r="D204" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E204" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F204" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>10</v>
+      </c>
+      <c r="B205" t="str">
+        <v>Fifteen Contracting Est</v>
+      </c>
+      <c r="C205" t="str">
+        <v>10000415</v>
+      </c>
+      <c r="D205" t="str">
+        <v>MAKKAH AL MUKARRAMAH</v>
+      </c>
+      <c r="E205" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F205" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>10</v>
+      </c>
+      <c r="B206" t="str">
+        <v>Operation &amp; Technology Contracting Est</v>
+      </c>
+      <c r="C206" t="str">
+        <v>10003037</v>
+      </c>
+      <c r="D206" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E206" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F206" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>10</v>
+      </c>
+      <c r="B207" t="str">
+        <v>Arabian Housing &amp; Building</v>
+      </c>
+      <c r="C207" t="str">
+        <v>100004718</v>
+      </c>
+      <c r="D207" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E207" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F207" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>10</v>
+      </c>
+      <c r="B208" t="str">
+        <v>Mohammad and Sulaiman Al-Assaf Trading and Contracting Company Ltd</v>
+      </c>
+      <c r="C208" t="str">
+        <v>10002264</v>
+      </c>
+      <c r="D208" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E208" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F208" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>10</v>
+      </c>
+      <c r="B209" t="str">
+        <v>Development Way Contracting Co</v>
+      </c>
+      <c r="C209" t="str">
+        <v>130413048</v>
+      </c>
+      <c r="D209" t="str">
+        <v>JEDDAH</v>
+      </c>
+      <c r="E209" t="str">
+        <v>Makkah</v>
+      </c>
+      <c r="F209" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>10</v>
+      </c>
+      <c r="B210" t="str">
+        <v>Building Defense Systems Trading and Contracting Company</v>
+      </c>
+      <c r="C210" t="str">
+        <v>100006258</v>
+      </c>
+      <c r="D210" t="str">
+        <v>AL KHOBAR</v>
+      </c>
+      <c r="E210" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="F210" t="str">
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>10</v>
+      </c>
+      <c r="B211" t="str">
+        <v>Bait Aljaleed for Maintenance &amp; Operation Company</v>
+      </c>
+      <c r="C211" t="str">
+        <v>100006826</v>
+      </c>
+      <c r="D211" t="str">
+        <v>RIYADH</v>
+      </c>
+      <c r="E211" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="F211" t="str">
         <v>Not Available</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F211"/>
   </ignoredErrors>
 </worksheet>
 </file>